--- a/data/reporting/adhoc_reporting.xlsx
+++ b/data/reporting/adhoc_reporting.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="AdHoc reporting" sheetId="2" r:id="rId1"/>
+    <sheet name="Conflict audit" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AdHoc reporting'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Conflict audit'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
